--- a/7/1/1/3/3/1/Series originales 1996 a 2021 - Trimestral.xlsx
+++ b/7/1/1/3/3/1/Series originales 1996 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>Serie</t>
   </si>
@@ -419,6 +419,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -776,7 +779,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH102"/>
+  <dimension ref="A1:AH103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9659,103 +9662,207 @@
         <v>134</v>
       </c>
       <c r="B102">
-        <v>153.6</v>
+        <v>152.8</v>
       </c>
       <c r="C102">
-        <v>84.7</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="D102">
-        <v>217.2</v>
+        <v>223.3</v>
       </c>
       <c r="E102">
-        <v>221.3</v>
+        <v>228.2</v>
       </c>
       <c r="F102">
-        <v>181.2</v>
+        <v>180.7</v>
       </c>
       <c r="G102">
-        <v>130.1</v>
+        <v>129.7</v>
       </c>
       <c r="H102">
-        <v>145.8</v>
+        <v>145.7</v>
       </c>
       <c r="I102">
-        <v>145.7</v>
+        <v>146</v>
       </c>
       <c r="J102">
-        <v>145.2</v>
+        <v>144.4</v>
       </c>
       <c r="K102">
-        <v>64.7</v>
+        <v>64.5</v>
       </c>
       <c r="L102">
-        <v>172.6</v>
+        <v>173.4</v>
       </c>
       <c r="M102">
-        <v>134.4</v>
+        <v>133.2</v>
       </c>
       <c r="N102">
-        <v>116.8</v>
+        <v>113.6</v>
       </c>
       <c r="O102">
-        <v>117.5</v>
+        <v>108.1</v>
       </c>
       <c r="P102">
         <v>118.7</v>
       </c>
       <c r="Q102">
-        <v>98.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="R102">
-        <v>114</v>
+        <v>116.5</v>
       </c>
       <c r="S102">
-        <v>146.3</v>
+        <v>146.1</v>
       </c>
       <c r="T102">
-        <v>150</v>
+        <v>150.9</v>
       </c>
       <c r="U102">
-        <v>143.6</v>
+        <v>143</v>
       </c>
       <c r="V102">
-        <v>140</v>
+        <v>139.4</v>
       </c>
       <c r="W102">
-        <v>157.8</v>
+        <v>158.3</v>
       </c>
       <c r="X102">
-        <v>140.8</v>
+        <v>141.5</v>
       </c>
       <c r="Y102">
-        <v>79.90000000000001</v>
+        <v>80.2</v>
       </c>
       <c r="Z102">
         <v>128.9</v>
       </c>
       <c r="AA102">
-        <v>110.4</v>
+        <v>110.5</v>
       </c>
       <c r="AB102">
-        <v>138.2</v>
+        <v>138.3</v>
       </c>
       <c r="AC102">
-        <v>143.4</v>
+        <v>142.7</v>
       </c>
       <c r="AD102">
-        <v>188.6</v>
+        <v>187.6</v>
       </c>
       <c r="AE102">
-        <v>135.8</v>
+        <v>136.7</v>
       </c>
       <c r="AF102">
-        <v>135.7</v>
+        <v>135.1</v>
       </c>
       <c r="AG102">
-        <v>106.6</v>
+        <v>105.4</v>
       </c>
       <c r="AH102">
-        <v>147.9</v>
+        <v>148.2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:34">
+      <c r="A103" t="s">
+        <v>135</v>
+      </c>
+      <c r="B103">
+        <v>161.9</v>
+      </c>
+      <c r="C103">
+        <v>74.2</v>
+      </c>
+      <c r="D103">
+        <v>230.7</v>
+      </c>
+      <c r="E103">
+        <v>234.5</v>
+      </c>
+      <c r="F103">
+        <v>199.9</v>
+      </c>
+      <c r="G103">
+        <v>138</v>
+      </c>
+      <c r="H103">
+        <v>152.7</v>
+      </c>
+      <c r="I103">
+        <v>156.6</v>
+      </c>
+      <c r="J103">
+        <v>145.3</v>
+      </c>
+      <c r="K103">
+        <v>68.5</v>
+      </c>
+      <c r="L103">
+        <v>174.8</v>
+      </c>
+      <c r="M103">
+        <v>150.8</v>
+      </c>
+      <c r="N103">
+        <v>129.6</v>
+      </c>
+      <c r="O103">
+        <v>147.4</v>
+      </c>
+      <c r="P103">
+        <v>121.5</v>
+      </c>
+      <c r="Q103">
+        <v>118.7</v>
+      </c>
+      <c r="R103">
+        <v>113.3</v>
+      </c>
+      <c r="S103">
+        <v>139</v>
+      </c>
+      <c r="T103">
+        <v>152.8</v>
+      </c>
+      <c r="U103">
+        <v>146.1</v>
+      </c>
+      <c r="V103">
+        <v>142.8</v>
+      </c>
+      <c r="W103">
+        <v>158.7</v>
+      </c>
+      <c r="X103">
+        <v>134</v>
+      </c>
+      <c r="Y103">
+        <v>74.2</v>
+      </c>
+      <c r="Z103">
+        <v>128.8</v>
+      </c>
+      <c r="AA103">
+        <v>111.2</v>
+      </c>
+      <c r="AB103">
+        <v>137.7</v>
+      </c>
+      <c r="AC103">
+        <v>142</v>
+      </c>
+      <c r="AD103">
+        <v>141</v>
+      </c>
+      <c r="AE103">
+        <v>133.1</v>
+      </c>
+      <c r="AF103">
+        <v>134.8</v>
+      </c>
+      <c r="AG103">
+        <v>122.4</v>
+      </c>
+      <c r="AH103">
+        <v>144.7</v>
       </c>
     </row>
   </sheetData>
